--- a/Output_Backtest/Risk_Parity_cumulative_returns.xlsx
+++ b/Output_Backtest/Risk_Parity_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9874618720521045</v>
+        <v>0.9874618872522931</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9665216610243532</v>
+        <v>0.9665216633949789</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9447098955210043</v>
+        <v>0.9447099325873899</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9518292337495797</v>
+        <v>0.9518291936200836</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9968508636805729</v>
+        <v>0.9968509415448342</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.015083590646143</v>
+        <v>1.015083522157664</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.018467626326273</v>
+        <v>1.018467558454069</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.044474332518083</v>
+        <v>1.044474341796894</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.067052548747077</v>
+        <v>1.067052475530476</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.069612763568325</v>
+        <v>1.069612654150808</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.076685050825368</v>
+        <v>1.076685007811564</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.055849522002406</v>
+        <v>1.055849459568038</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.046912739067499</v>
+        <v>1.046912693061754</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.059955558388311</v>
+        <v>1.059955586018047</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.07701778148219</v>
+        <v>1.077017783836468</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.099577679416314</v>
+        <v>1.099577672580508</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.100448347228724</v>
+        <v>1.100448281476913</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.112295197895067</v>
+        <v>1.112295216601975</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.120745458250782</v>
+        <v>1.120745484394811</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.121783439559453</v>
+        <v>1.121783492482222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.143127938242447</v>
+        <v>1.143127762322932</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.152534572826061</v>
+        <v>1.152534536688398</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.161949287358608</v>
+        <v>1.161949252424402</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.171500194195271</v>
+        <v>1.171500189447402</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.181819835798144</v>
+        <v>1.181819753826274</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.194649177834383</v>
+        <v>1.194649027444987</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.212116135926419</v>
+        <v>1.212116019254081</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.1770851572777</v>
+        <v>1.177085058755468</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.184300474587573</v>
+        <v>1.184300465687202</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.182562601764213</v>
+        <v>1.182562716844745</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.195417518258936</v>
+        <v>1.195417387620557</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.1930090373576</v>
+        <v>1.193009008325637</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.206802050828495</v>
+        <v>1.206801962687537</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.215278319051056</v>
+        <v>1.215278203659866</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.20910897106035</v>
+        <v>1.209108886780763</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.162674700428735</v>
+        <v>1.162674701227993</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.170461901341172</v>
+        <v>1.170461788836214</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.139865211288933</v>
+        <v>1.139865128952538</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.205780775518618</v>
+        <v>1.205780714267174</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.218458981218581</v>
+        <v>1.218459003392649</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.238796022352592</v>
+        <v>1.2387959298654</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.255292136462584</v>
+        <v>1.255291997234742</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.228690579256399</v>
+        <v>1.228690458740153</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.28028273638173</v>
+        <v>1.28028266486588</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.283426421262413</v>
+        <v>1.283426350678598</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.293489566949673</v>
+        <v>1.293489550006241</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.30121267424521</v>
+        <v>1.301212532626784</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.320131331413236</v>
+        <v>1.320131175322839</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.328755661966542</v>
+        <v>1.328755527774058</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.357081140531232</v>
+        <v>1.357080970392413</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.361334542670096</v>
+        <v>1.361334376301014</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.331997303154389</v>
+        <v>1.331997169966054</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.259276218400565</v>
+        <v>1.259276045171351</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.325904551435552</v>
+        <v>1.325904526981383</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.363815753566239</v>
+        <v>1.363815582987371</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.397374696979507</v>
+        <v>1.397374692921148</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.456450565942828</v>
+        <v>1.456450450594051</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.471040864605593</v>
+        <v>1.471040657220907</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.447247980433467</v>
+        <v>1.447247803979371</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.431624105218948</v>
+        <v>1.431623977795958</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.506212927462771</v>
+        <v>1.506212895718927</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.549640643188061</v>
+        <v>1.549640654465582</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.54173319228339</v>
+        <v>1.541733246372563</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.537107254525481</v>
+        <v>1.537107183990087</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.535414404622224</v>
+        <v>1.535414278000878</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.571748238260008</v>
+        <v>1.571748235011442</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.595821490324714</v>
+        <v>1.595821387259804</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.613113878220181</v>
+        <v>1.613113873907498</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.620736836953301</v>
+        <v>1.620736735601819</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.629328443658061</v>
+        <v>1.6293283945703</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.590012383842793</v>
+        <v>1.590012334065962</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.615379727747592</v>
+        <v>1.615379705961554</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.596860465530672</v>
+        <v>1.596860414921113</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.624743443663357</v>
+        <v>1.624743350665713</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.580607105300531</v>
+        <v>1.580606990665842</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.56500754762146</v>
+        <v>1.565007407140938</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.552070575323363</v>
+        <v>1.552070510961328</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.469529726419721</v>
+        <v>1.469529674524064</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.474911451034266</v>
+        <v>1.474911344886372</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.408981955723425</v>
+        <v>1.408981926094128</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.461198581790213</v>
+        <v>1.461198469437827</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.407801971169551</v>
+        <v>1.407801829996093</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.315419364578571</v>
+        <v>1.315419335485477</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.330051075976429</v>
+        <v>1.330050997328941</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.407926166572309</v>
+        <v>1.407926120623279</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.380721781874076</v>
+        <v>1.380721801375429</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.462562317188744</v>
+        <v>1.462562254637098</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.40769714721192</v>
+        <v>1.407697140397908</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.446974009224489</v>
+        <v>1.446973899604429</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.454017941941292</v>
+        <v>1.454017875535547</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.424337783564383</v>
+        <v>1.424337702075185</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.465066189661989</v>
+        <v>1.465066192973278</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.503729210322483</v>
+        <v>1.503729207760899</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.471324799154603</v>
+        <v>1.471324799050312</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.425042086034585</v>
+        <v>1.425041992372845</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.390610429457902</v>
+        <v>1.390610370098382</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.471846825037889</v>
+        <v>1.471846805777911</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.534762618819283</v>
+        <v>1.534762687476223</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.519571498878181</v>
+        <v>1.519571565045998</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.538801901842652</v>
+        <v>1.538801875207616</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.577502008800991</v>
+        <v>1.577501985282944</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.542168095840452</v>
+        <v>1.542168110239161</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.575974991642209</v>
+        <v>1.575975010512222</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.588446281832613</v>
+        <v>1.588446277378053</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.629149697863415</v>
+        <v>1.629149715174304</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.653840142506081</v>
+        <v>1.653840169628569</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.692227782861292</v>
+        <v>1.692227789554373</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.659973521659265</v>
+        <v>1.65997354734272</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.644919098533256</v>
+        <v>1.644919129867419</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Risk_Parity_cumulative_returns.xlsx
+++ b/Output_Backtest/Risk_Parity_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9874618872522931</v>
+        <v>0.9874619153657306</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9665216633949789</v>
+        <v>0.9665217588123448</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9447099325873899</v>
+        <v>0.9447098788770203</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9518291936200836</v>
+        <v>0.9518291176151921</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9968509415448342</v>
+        <v>0.996850908245115</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.015083522157664</v>
+        <v>1.015083634331593</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.018467558454069</v>
+        <v>1.018467600279738</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.044474341796894</v>
+        <v>1.044474351419874</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.067052475530476</v>
+        <v>1.067052601207186</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.069612654150808</v>
+        <v>1.069612649304089</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.076685007811564</v>
+        <v>1.076685076486977</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.055849459568038</v>
+        <v>1.055849449202855</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.046912693061754</v>
+        <v>1.046912768527891</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.059955586018047</v>
+        <v>1.059955573015641</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.077017783836468</v>
+        <v>1.077017836892203</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.099577672580508</v>
+        <v>1.099577657114709</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.100448281476913</v>
+        <v>1.100448407204852</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.112295216601975</v>
+        <v>1.112295304812351</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.120745484394811</v>
+        <v>1.120745581435398</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.121783492482222</v>
+        <v>1.121783542154259</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.143127762322932</v>
+        <v>1.143127965013619</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.152534536688398</v>
+        <v>1.152534561205836</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.161949252424402</v>
+        <v>1.161949278581928</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.171500189447402</v>
+        <v>1.171500222488037</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.181819753826274</v>
+        <v>1.181819871761981</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.194649027444987</v>
+        <v>1.194649163084954</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.212116019254081</v>
+        <v>1.212116146760266</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.177085058755468</v>
+        <v>1.177085248882431</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.184300465687202</v>
+        <v>1.184300516179501</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.182562716844745</v>
+        <v>1.182562829802088</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.195417387620557</v>
+        <v>1.195417548687567</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.193009008325637</v>
+        <v>1.19300916320281</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.206801962687537</v>
+        <v>1.20680205430604</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.215278203659866</v>
+        <v>1.215278387773977</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.209108886780763</v>
+        <v>1.209109047460557</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.162674701227993</v>
+        <v>1.162674774054997</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.170461788836214</v>
+        <v>1.170461900085075</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.139865128952538</v>
+        <v>1.139865245881022</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.205780714267174</v>
+        <v>1.205780842852684</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.218459003392649</v>
+        <v>1.218459058613076</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.2387959298654</v>
+        <v>1.238796029785649</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.255291997234742</v>
+        <v>1.255292126713024</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.228690458740153</v>
+        <v>1.228690669146987</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.28028266486588</v>
+        <v>1.28028277090343</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.283426350678598</v>
+        <v>1.283426482661502</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.293489550006241</v>
+        <v>1.293489606351031</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.301212532626784</v>
+        <v>1.301212684671967</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.320131175322839</v>
+        <v>1.320131347943877</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.328755527774058</v>
+        <v>1.328755633362126</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.357080970392413</v>
+        <v>1.357081223659628</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.361334376301014</v>
+        <v>1.361334599676362</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.331997169966054</v>
+        <v>1.331997373396901</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.259276045171351</v>
+        <v>1.259276415964483</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.325904526981383</v>
+        <v>1.32590467404795</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.363815582987371</v>
+        <v>1.363815814120766</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.397374692921148</v>
+        <v>1.397374905151733</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.456450450594051</v>
+        <v>1.456450694960992</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.471040657220907</v>
+        <v>1.471040923240227</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.447247803979371</v>
+        <v>1.447248068511478</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.431623977795958</v>
+        <v>1.431624141738069</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.506212895718927</v>
+        <v>1.506212972609738</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.549640654465582</v>
+        <v>1.549640598282183</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.541733246372563</v>
+        <v>1.541733173268102</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.537107183990087</v>
+        <v>1.537107078475931</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.535414278000878</v>
+        <v>1.535414224292039</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.571748235011442</v>
+        <v>1.57174807452035</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.595821387259804</v>
+        <v>1.595821204342285</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.613113873907498</v>
+        <v>1.613113722328906</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.620736735601819</v>
+        <v>1.62073659047157</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.6293283945703</v>
+        <v>1.629328261080389</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.590012334065962</v>
+        <v>1.590012249942937</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.615379705961554</v>
+        <v>1.61537945331308</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.596860414921113</v>
+        <v>1.59686022949255</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.624743350665713</v>
+        <v>1.624743260412388</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.580606990665842</v>
+        <v>1.580606899368937</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.565007407140938</v>
+        <v>1.565007220255906</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.552070510961328</v>
+        <v>1.55207030269037</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.469529674524064</v>
+        <v>1.469529512954097</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.474911344886372</v>
+        <v>1.474911124631481</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.408981926094128</v>
+        <v>1.408981731525866</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.461198469437827</v>
+        <v>1.461198354334613</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.407801829996093</v>
+        <v>1.407801662507244</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.315419335485477</v>
+        <v>1.315419222386962</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.330050997328941</v>
+        <v>1.330050829697714</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.407926120623279</v>
+        <v>1.407925893373878</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.380721801375429</v>
+        <v>1.380721700085792</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.462562254637098</v>
+        <v>1.462562060243706</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.407697140397908</v>
+        <v>1.407696898593758</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.446973899604429</v>
+        <v>1.446973728559438</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.454017875535547</v>
+        <v>1.454017691730387</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.424337702075185</v>
+        <v>1.424337514324136</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.465066192973278</v>
+        <v>1.465065970748905</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.503729207760899</v>
+        <v>1.503728927303442</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.471324799050312</v>
+        <v>1.471324527828817</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.425041992372845</v>
+        <v>1.425041830165461</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.390610370098382</v>
+        <v>1.390610161855375</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.471846805777911</v>
+        <v>1.471846539976617</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.534762687476223</v>
+        <v>1.534762331790085</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.519571565045998</v>
+        <v>1.519571222329303</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.538801875207616</v>
+        <v>1.538801549658992</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.577501985282944</v>
+        <v>1.577501639273496</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.542168110239161</v>
+        <v>1.542167787488997</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.575975010512222</v>
+        <v>1.575974618530828</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.588446277378053</v>
+        <v>1.588445934364129</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.629149715174304</v>
+        <v>1.629149342221327</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.653840169628569</v>
+        <v>1.653839779033169</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.692227789554373</v>
+        <v>1.692665781235002</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.65997354734272</v>
+        <v>1.660403184989569</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.644919129867419</v>
+        <v>1.654634194423117</v>
       </c>
     </row>
   </sheetData>
